--- a/addons/Sales/backend/resources/excel/港台订单模板导入.xlsx
+++ b/addons/Sales/backend/resources/excel/港台订单模板导入.xlsx
@@ -109,9 +109,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>实际到账金额</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>产品1价格</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾momo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKTvMall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -131,24 +147,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品1价格</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台湾momo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HKTvMall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台类型：</t>
+      <t>平台类型</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,9 +169,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>平台类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>平台订单号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -191,7 +191,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>平台订单号</t>
+      <t>款号1</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,9 +213,81 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>款号1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>产品名称1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单语言：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文简体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文繁体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单货币：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手寸类型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：链长，手镯直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美号：US 港号：HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只填数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：链长，手镯直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只填数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考格式：2020-08-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考格式：#12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考格式：#12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -235,100 +307,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品名称1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单语言：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文简体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文繁体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单货币：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HKD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手寸类型2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：链长，手镯直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美号：US 港号：HK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只填数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：链长，手镯直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只填数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考格式：2020-08-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考格式：#12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考格式：#12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>下单时间</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -340,6 +318,10 @@
   <si>
     <t>订单备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际到账金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -736,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -770,72 +752,72 @@
   <sheetData>
     <row r="1" spans="1:42" ht="81" hidden="1" customHeight="1">
       <c r="AA1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AG1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="42" customHeight="1">
       <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>8</v>
@@ -843,16 +825,16 @@
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -864,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
@@ -876,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>4</v>
@@ -897,19 +879,19 @@
         <v>6</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1"/>
